--- a/target/test-classes/resource/cityNames.xlsx
+++ b/target/test-classes/resource/cityNames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2440638\eclipse-workspace\Major_Project\src\test\java\Cognizant\Major_Project\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2440638\eclipse-workspace\Major_Project\src\test\resources\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C497210-3F5E-4696-A350-ADBD734847AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F051D-CA22-4DDC-A335-50AA510AECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,27 +45,18 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
     <t>Kochi</t>
   </si>
   <si>
     <t>Gurugram</t>
   </si>
   <si>
-    <t>Patna</t>
-  </si>
-  <si>
     <t>Bhubaneswar</t>
   </si>
   <si>
     <t>Bhopal</t>
   </si>
   <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
     <t>Visakhapatnam</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>MobileNumbers</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Ongole</t>
   </si>
 </sst>
 </file>
@@ -126,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +414,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,14 +425,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -437,7 +440,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -445,7 +448,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -453,7 +456,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -461,7 +464,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -469,119 +472,119 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>891022</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2341</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3436</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2424231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>363463</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>23466234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B15">
         <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B16">
         <v>24624</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
+      <c r="A18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B18">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
+      <c r="A19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B19">
         <v>2264626</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
+      <c r="A20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21">
